--- a/File_for_Import/Reports/Наработки ГПА №2.xlsx
+++ b/File_for_Import/Reports/Наработки ГПА №2.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,1388 @@
         <v/>
       </c>
     </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="5">
+        <f>CONCATENATE($A$2, $A$1, C4, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B4" s="5">
+        <f>CONCATENATE($A$2, $A$1, C4, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C4" s="5">
+        <f>"System.CNT.SK_Swap"</f>
+        <v/>
+      </c>
+      <c r="D4" s="6">
+        <f>"1"</f>
+        <v/>
+      </c>
+      <c r="E4" s="7">
+        <f>"СК. Стопорный клапан  "</f>
+        <v/>
+      </c>
+      <c r="F4" s="6">
+        <f>CurrAttrValue(B4, 0)</f>
+        <v/>
+      </c>
+      <c r="G4" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="5">
+        <f>CONCATENATE($A$2, $A$1, C5, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B5" s="5">
+        <f>CONCATENATE($A$2, $A$1, C5, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C5" s="5">
+        <f>"System.CNT.KP1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D5" s="6">
+        <f>"2"</f>
+        <v/>
+      </c>
+      <c r="E5" s="7">
+        <f>"КПВ4001. Клапан подачи воздуха в КШТ от ВОД1  "</f>
+        <v/>
+      </c>
+      <c r="F5" s="6">
+        <f>CurrAttrValue(B5, 0)</f>
+        <v/>
+      </c>
+      <c r="G5" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="5">
+        <f>CONCATENATE($A$2, $A$1, C6, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B6" s="5">
+        <f>CONCATENATE($A$2, $A$1, C6, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C6" s="5">
+        <f>"System.CNT.KP2_Swap"</f>
+        <v/>
+      </c>
+      <c r="D6" s="6">
+        <f>"3"</f>
+        <v/>
+      </c>
+      <c r="E6" s="7">
+        <f>"КПВ4002. Клапан подачи воздуха в КШТ от ВОД2  "</f>
+        <v/>
+      </c>
+      <c r="F6" s="6">
+        <f>CurrAttrValue(B6, 0)</f>
+        <v/>
+      </c>
+      <c r="G6" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="5">
+        <f>CONCATENATE($A$2, $A$1, C7, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B7" s="5">
+        <f>CONCATENATE($A$2, $A$1, C7, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C7" s="5">
+        <f>"System.CNT.KP3_1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D7" s="6">
+        <f>"4"</f>
+        <v/>
+      </c>
+      <c r="E7" s="7">
+        <f>"КПВ4003. Клапан на выходе КШТ(секция 1)  "</f>
+        <v/>
+      </c>
+      <c r="F7" s="6">
+        <f>CurrAttrValue(B7, 0)</f>
+        <v/>
+      </c>
+      <c r="G7" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="5">
+        <f>CONCATENATE($A$2, $A$1, C8, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B8" s="5">
+        <f>CONCATENATE($A$2, $A$1, C8, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C8" s="5">
+        <f>"System.CNT.KP3_2_Swap"</f>
+        <v/>
+      </c>
+      <c r="D8" s="6">
+        <f>"5"</f>
+        <v/>
+      </c>
+      <c r="E8" s="7">
+        <f>"КПВ4003. Клапан на выходе КШТ(секция 2)  "</f>
+        <v/>
+      </c>
+      <c r="F8" s="6">
+        <f>CurrAttrValue(B8, 0)</f>
+        <v/>
+      </c>
+      <c r="G8" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="5">
+        <f>CONCATENATE($A$2, $A$1, C9, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B9" s="5">
+        <f>CONCATENATE($A$2, $A$1, C9, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C9" s="5">
+        <f>"System.CNT.KP3_3_Swap"</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <f>"6"</f>
+        <v/>
+      </c>
+      <c r="E9" s="7">
+        <f>"КПВ4003. Клапан на выходе КШТ(секция 3)  "</f>
+        <v/>
+      </c>
+      <c r="F9" s="6">
+        <f>CurrAttrValue(B9, 0)</f>
+        <v/>
+      </c>
+      <c r="G9" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="5">
+        <f>CONCATENATE($A$2, $A$1, C10, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B10" s="5">
+        <f>CONCATENATE($A$2, $A$1, C10, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C10" s="5">
+        <f>"System.CNT.KP4_Swap"</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <f>"7"</f>
+        <v/>
+      </c>
+      <c r="E10" s="7">
+        <f>"КПВ4004. Клапан подачи воздуха в КШТ от АВГМ  "</f>
+        <v/>
+      </c>
+      <c r="F10" s="6">
+        <f>CurrAttrValue(B10, 0)</f>
+        <v/>
+      </c>
+      <c r="G10" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="5">
+        <f>CONCATENATE($A$2, $A$1, C11, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B11" s="5">
+        <f>CONCATENATE($A$2, $A$1, C11, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C11" s="5">
+        <f>"System.CNT.KP5_Swap"</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <f>"8"</f>
+        <v/>
+      </c>
+      <c r="E11" s="7">
+        <f>"КПВ4201. Клапан охлаждения трансмиссии  "</f>
+        <v/>
+      </c>
+      <c r="F11" s="6">
+        <f>CurrAttrValue(B11, 0)</f>
+        <v/>
+      </c>
+      <c r="G11" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="5">
+        <f>CONCATENATE($A$2, $A$1, C12, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B12" s="5">
+        <f>CONCATENATE($A$2, $A$1, C12, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C12" s="5">
+        <f>"System.CNT.KP7_Swap"</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <f>"9"</f>
+        <v/>
+      </c>
+      <c r="E12" s="7">
+        <f>"КПВ4101. Клапан подачи воздуха в ангар от АВГМ  "</f>
+        <v/>
+      </c>
+      <c r="F12" s="6">
+        <f>CurrAttrValue(B12, 0)</f>
+        <v/>
+      </c>
+      <c r="G12" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5">
+        <f>CONCATENATE($A$2, $A$1, C13, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B13" s="5">
+        <f>CONCATENATE($A$2, $A$1, C13, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C13" s="5">
+        <f>"System.CNT.Kr1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <f>"10"</f>
+        <v/>
+      </c>
+      <c r="E13" s="7">
+        <f>"Кран №1  "</f>
+        <v/>
+      </c>
+      <c r="F13" s="6">
+        <f>CurrAttrValue(B13, 0)</f>
+        <v/>
+      </c>
+      <c r="G13" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="5">
+        <f>CONCATENATE($A$2, $A$1, C14, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B14" s="5">
+        <f>CONCATENATE($A$2, $A$1, C14, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C14" s="5">
+        <f>"System.CNT.Kr12_Swap"</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <f>"11"</f>
+        <v/>
+      </c>
+      <c r="E14" s="7">
+        <f>"Кран №12  "</f>
+        <v/>
+      </c>
+      <c r="F14" s="6">
+        <f>CurrAttrValue(B14, 0)</f>
+        <v/>
+      </c>
+      <c r="G14" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5">
+        <f>CONCATENATE($A$2, $A$1, C15, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B15" s="5">
+        <f>CONCATENATE($A$2, $A$1, C15, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C15" s="5">
+        <f>"System.CNT.Kr12bis_Swap"</f>
+        <v/>
+      </c>
+      <c r="D15" s="6">
+        <f>"12"</f>
+        <v/>
+      </c>
+      <c r="E15" s="7">
+        <f>"Кран №12бис  "</f>
+        <v/>
+      </c>
+      <c r="F15" s="6">
+        <f>CurrAttrValue(B15, 0)</f>
+        <v/>
+      </c>
+      <c r="G15" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="5">
+        <f>CONCATENATE($A$2, $A$1, C16, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B16" s="5">
+        <f>CONCATENATE($A$2, $A$1, C16, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C16" s="5">
+        <f>"System.CNT.Kr15_Swap"</f>
+        <v/>
+      </c>
+      <c r="D16" s="6">
+        <f>"13"</f>
+        <v/>
+      </c>
+      <c r="E16" s="7">
+        <f>"Кран №15  "</f>
+        <v/>
+      </c>
+      <c r="F16" s="6">
+        <f>CurrAttrValue(B16, 0)</f>
+        <v/>
+      </c>
+      <c r="G16" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="5">
+        <f>CONCATENATE($A$2, $A$1, C17, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B17" s="5">
+        <f>CONCATENATE($A$2, $A$1, C17, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C17" s="5">
+        <f>"System.CNT.Kr15_1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D17" s="6">
+        <f>"14"</f>
+        <v/>
+      </c>
+      <c r="E17" s="7">
+        <f>"Кран №15.1  "</f>
+        <v/>
+      </c>
+      <c r="F17" s="6">
+        <f>CurrAttrValue(B17, 0)</f>
+        <v/>
+      </c>
+      <c r="G17" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="5">
+        <f>CONCATENATE($A$2, $A$1, C18, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B18" s="5">
+        <f>CONCATENATE($A$2, $A$1, C18, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C18" s="5">
+        <f>"System.CNT.Kr16_Swap"</f>
+        <v/>
+      </c>
+      <c r="D18" s="6">
+        <f>"15"</f>
+        <v/>
+      </c>
+      <c r="E18" s="7">
+        <f>"Кран №16  "</f>
+        <v/>
+      </c>
+      <c r="F18" s="6">
+        <f>CurrAttrValue(B18, 0)</f>
+        <v/>
+      </c>
+      <c r="G18" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="5">
+        <f>CONCATENATE($A$2, $A$1, C19, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B19" s="5">
+        <f>CONCATENATE($A$2, $A$1, C19, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C19" s="5">
+        <f>"System.CNT.Kr16_1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D19" s="6">
+        <f>"16"</f>
+        <v/>
+      </c>
+      <c r="E19" s="7">
+        <f>"Кран №16.1  "</f>
+        <v/>
+      </c>
+      <c r="F19" s="6">
+        <f>CurrAttrValue(B19, 0)</f>
+        <v/>
+      </c>
+      <c r="G19" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="5">
+        <f>CONCATENATE($A$2, $A$1, C20, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B20" s="5">
+        <f>CONCATENATE($A$2, $A$1, C20, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C20" s="5">
+        <f>"System.CNT.Kr2_Swap"</f>
+        <v/>
+      </c>
+      <c r="D20" s="6">
+        <f>"17"</f>
+        <v/>
+      </c>
+      <c r="E20" s="7">
+        <f>"Кран №2  "</f>
+        <v/>
+      </c>
+      <c r="F20" s="6">
+        <f>CurrAttrValue(B20, 0)</f>
+        <v/>
+      </c>
+      <c r="G20" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C21" s="5">
+        <f>"System.CNT.Kr4_Swap"</f>
+        <v/>
+      </c>
+      <c r="D21" s="6">
+        <f>"18"</f>
+        <v/>
+      </c>
+      <c r="E21" s="7">
+        <f>"Кран №4  "</f>
+        <v/>
+      </c>
+      <c r="F21" s="6">
+        <f>CurrAttrValue(B21, 0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="E24" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F24" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G24" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="E25" s="1">
+        <f>"Срез накопленных значений по наработке ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F25" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G25" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="D27" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E27" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F27" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G27" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="5">
+        <f>CONCATENATE($A$2, $A$1, C28, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B28" s="5">
+        <f>CONCATENATE($A$2, $A$1, C28, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C28" s="5">
+        <f>"System.CNT.Kr5_Swap"</f>
+        <v/>
+      </c>
+      <c r="D28" s="6">
+        <f>"19"</f>
+        <v/>
+      </c>
+      <c r="E28" s="7">
+        <f>"Кран №5  "</f>
+        <v/>
+      </c>
+      <c r="F28" s="6">
+        <f>CurrAttrValue(B28, 0)</f>
+        <v/>
+      </c>
+      <c r="G28" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="5">
+        <f>CONCATENATE($A$2, $A$1, C29, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B29" s="5">
+        <f>CONCATENATE($A$2, $A$1, C29, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C29" s="5">
+        <f>"System.CNT.Kr6_Swap"</f>
+        <v/>
+      </c>
+      <c r="D29" s="6">
+        <f>"20"</f>
+        <v/>
+      </c>
+      <c r="E29" s="7">
+        <f>"Кран №6  "</f>
+        <v/>
+      </c>
+      <c r="F29" s="6">
+        <f>CurrAttrValue(B29, 0)</f>
+        <v/>
+      </c>
+      <c r="G29" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="5">
+        <f>CONCATENATE($A$2, $A$1, C30, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B30" s="5">
+        <f>CONCATENATE($A$2, $A$1, C30, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C30" s="5">
+        <f>"System.CNT.Kr9_Swap"</f>
+        <v/>
+      </c>
+      <c r="D30" s="6">
+        <f>"21"</f>
+        <v/>
+      </c>
+      <c r="E30" s="7">
+        <f>"Кран №9  "</f>
+        <v/>
+      </c>
+      <c r="F30" s="6">
+        <f>CurrAttrValue(B30, 0)</f>
+        <v/>
+      </c>
+      <c r="G30" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="5">
+        <f>CONCATENATE($A$2, $A$1, C31, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B31" s="5">
+        <f>CONCATENATE($A$2, $A$1, C31, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C31" s="5">
+        <f>"System.CNT.Kr9a_Swap"</f>
+        <v/>
+      </c>
+      <c r="D31" s="6">
+        <f>"22"</f>
+        <v/>
+      </c>
+      <c r="E31" s="7">
+        <f>"Кран №9a  "</f>
+        <v/>
+      </c>
+      <c r="F31" s="6">
+        <f>CurrAttrValue(B31, 0)</f>
+        <v/>
+      </c>
+      <c r="G31" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="5">
+        <f>CONCATENATE($A$2, $A$1, C32, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B32" s="5">
+        <f>CONCATENATE($A$2, $A$1, C32, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C32" s="5">
+        <f>"System.CNT.PE1_Swap"</f>
+        <v/>
+      </c>
+      <c r="D32" s="6">
+        <f>"23"</f>
+        <v/>
+      </c>
+      <c r="E32" s="7">
+        <f>"ПЕ1. Клапан вентиляции ангара №1  "</f>
+        <v/>
+      </c>
+      <c r="F32" s="6">
+        <f>CurrAttrValue(B32, 0)</f>
+        <v/>
+      </c>
+      <c r="G32" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="5">
+        <f>CONCATENATE($A$2, $A$1, C33, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B33" s="5">
+        <f>CONCATENATE($A$2, $A$1, C33, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C33" s="5">
+        <f>"System.CNT.PE2_Swap"</f>
+        <v/>
+      </c>
+      <c r="D33" s="6">
+        <f>"24"</f>
+        <v/>
+      </c>
+      <c r="E33" s="7">
+        <f>"ПЕ2. Клапан вентиляции ангара №2  "</f>
+        <v/>
+      </c>
+      <c r="F33" s="6">
+        <f>CurrAttrValue(B33, 0)</f>
+        <v/>
+      </c>
+      <c r="G33" s="6">
+        <f>"-"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="5">
+        <f>CONCATENATE($A$2, $A$1, C34, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B34" s="5">
+        <f>CONCATENATE($A$2, $A$1, C34, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C34" s="5">
+        <f>"System.CNT.AZ11_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D34" s="6">
+        <f>"25"</f>
+        <v/>
+      </c>
+      <c r="E34" s="7">
+        <f>"АЗ-1. Агрегат зажигания №1  "</f>
+        <v/>
+      </c>
+      <c r="F34" s="6">
+        <f>CurrAttrValue(B34, 0)</f>
+        <v/>
+      </c>
+      <c r="G34" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="5">
+        <f>CONCATENATE($A$2, $A$1, C35, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B35" s="5">
+        <f>CONCATENATE($A$2, $A$1, C35, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C35" s="5">
+        <f>"System.CNT.AZ12_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D35" s="6">
+        <f>"26"</f>
+        <v/>
+      </c>
+      <c r="E35" s="7">
+        <f>"АЗ-2. Агрегат зажигания №2  "</f>
+        <v/>
+      </c>
+      <c r="F35" s="6">
+        <f>CurrAttrValue(B35, 0)</f>
+        <v/>
+      </c>
+      <c r="G35" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="5">
+        <f>CONCATENATE($A$2, $A$1, C36, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B36" s="5">
+        <f>CONCATENATE($A$2, $A$1, C36, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C36" s="5">
+        <f>"System.CNT.EnBVP_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D36" s="6">
+        <f>"27"</f>
+        <v/>
+      </c>
+      <c r="E36" s="7">
+        <f>"Электронагреватель БПВ  "</f>
+        <v/>
+      </c>
+      <c r="F36" s="6">
+        <f>CurrAttrValue(B36, 0)</f>
+        <v/>
+      </c>
+      <c r="G36" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="5">
+        <f>CONCATENATE($A$2, $A$1, C37, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B37" s="5">
+        <f>CONCATENATE($A$2, $A$1, C37, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C37" s="5">
+        <f>"System.CNT.VnMOD1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D37" s="6">
+        <f>"28"</f>
+        <v/>
+      </c>
+      <c r="E37" s="7">
+        <f>"ВМОД1. Вентилятор маслоохладителя двигателя №1  "</f>
+        <v/>
+      </c>
+      <c r="F37" s="6">
+        <f>CurrAttrValue(B37, 0)</f>
+        <v/>
+      </c>
+      <c r="G37" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="5">
+        <f>CONCATENATE($A$2, $A$1, C38, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B38" s="5">
+        <f>CONCATENATE($A$2, $A$1, C38, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C38" s="5">
+        <f>"System.CNT.VnMON1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D38" s="6">
+        <f>"29"</f>
+        <v/>
+      </c>
+      <c r="E38" s="7">
+        <f>"ВМОН1. Вентилятор маслоохладителя нагнетателя №1  "</f>
+        <v/>
+      </c>
+      <c r="F38" s="6">
+        <f>CurrAttrValue(B38, 0)</f>
+        <v/>
+      </c>
+      <c r="G38" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="5">
+        <f>CONCATENATE($A$2, $A$1, C39, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B39" s="5">
+        <f>CONCATENATE($A$2, $A$1, C39, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C39" s="5">
+        <f>"System.CNT.VnANG1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D39" s="6">
+        <f>"30"</f>
+        <v/>
+      </c>
+      <c r="E39" s="7">
+        <f>"Вентилятор машинного зала (основной)  "</f>
+        <v/>
+      </c>
+      <c r="F39" s="6">
+        <f>CurrAttrValue(B39, 0)</f>
+        <v/>
+      </c>
+      <c r="G39" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="5">
+        <f>CONCATENATE($A$2, $A$1, C40, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B40" s="5">
+        <f>CONCATENATE($A$2, $A$1, C40, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C40" s="5">
+        <f>"System.CNT.VnANG2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D40" s="6">
+        <f>"31"</f>
+        <v/>
+      </c>
+      <c r="E40" s="7">
+        <f>"Вентилятор машинного зала (летний)  "</f>
+        <v/>
+      </c>
+      <c r="F40" s="6">
+        <f>CurrAttrValue(B40, 0)</f>
+        <v/>
+      </c>
+      <c r="G40" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="5">
+        <f>CONCATENATE($A$2, $A$1, C41, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B41" s="5">
+        <f>CONCATENATE($A$2, $A$1, C41, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C41" s="5">
+        <f>"System.CNT.VnANG3_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D41" s="6">
+        <f>"32"</f>
+        <v/>
+      </c>
+      <c r="E41" s="7">
+        <f>"Вентилятор загазованности (резервный)  "</f>
+        <v/>
+      </c>
+      <c r="F41" s="6">
+        <f>CurrAttrValue(B41, 0)</f>
+        <v/>
+      </c>
+      <c r="G41" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="5">
+        <f>CONCATENATE($A$2, $A$1, C42, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B42" s="5">
+        <f>CONCATENATE($A$2, $A$1, C42, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C42" s="5">
+        <f>"System.CNT.VnMOD2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D42" s="6">
+        <f>"33"</f>
+        <v/>
+      </c>
+      <c r="E42" s="7">
+        <f>"ВМОД2. Вентилятор маслоохладителя двигателя №2  "</f>
+        <v/>
+      </c>
+      <c r="F42" s="6">
+        <f>CurrAttrValue(B42, 0)</f>
+        <v/>
+      </c>
+      <c r="G42" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="5">
+        <f>CONCATENATE($A$2, $A$1, C43, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B43" s="5">
+        <f>CONCATENATE($A$2, $A$1, C43, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C43" s="5">
+        <f>"System.CNT.VnMON2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D43" s="6">
+        <f>"34"</f>
+        <v/>
+      </c>
+      <c r="E43" s="7">
+        <f>"ВМОН2. Вентилятор маслоохладителя нагнетателя №2  "</f>
+        <v/>
+      </c>
+      <c r="F43" s="6">
+        <f>CurrAttrValue(B43, 0)</f>
+        <v/>
+      </c>
+      <c r="G43" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C44" s="5">
+        <f>"System.CNT.VnANG4_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D44" s="6">
+        <f>"35"</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>"Вентилятор загазованности ангара (основной)  "</f>
+        <v/>
+      </c>
+      <c r="F44" s="6">
+        <f>CurrAttrValue(B44, 0)</f>
+        <v/>
+      </c>
+      <c r="G44" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C45" s="5">
+        <f>"System.CNT.VnEnMOD1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D45" s="6">
+        <f>"36"</f>
+        <v/>
+      </c>
+      <c r="E45" s="7">
+        <f>"ВнЭМОД1. Вентилятор №1 электронагревателя МОД  "</f>
+        <v/>
+      </c>
+      <c r="F45" s="6">
+        <f>CurrAttrValue(B45, 0)</f>
+        <v/>
+      </c>
+      <c r="G45" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="35" customHeight="1">
+      <c r="E48" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F48" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G48" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="40" customHeight="1">
+      <c r="E49" s="1">
+        <f>"Срез накопленных значений по наработке ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F49" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G49" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="D51" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E51" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F51" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G51" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="5">
+        <f>CONCATENATE($A$2, $A$1, C52, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B52" s="5">
+        <f>CONCATENATE($A$2, $A$1, C52, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C52" s="5">
+        <f>"System.CNT.VnEnMON1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D52" s="6">
+        <f>"37"</f>
+        <v/>
+      </c>
+      <c r="E52" s="7">
+        <f>"ВнЭМОН1. Вентилятор №1 электронагревателя МОН  "</f>
+        <v/>
+      </c>
+      <c r="F52" s="6">
+        <f>CurrAttrValue(B52, 0)</f>
+        <v/>
+      </c>
+      <c r="G52" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="5">
+        <f>CONCATENATE($A$2, $A$1, C53, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B53" s="5">
+        <f>CONCATENATE($A$2, $A$1, C53, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C53" s="5">
+        <f>"System.CNT.EnTS_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D53" s="6">
+        <f>"38"</f>
+        <v/>
+      </c>
+      <c r="E53" s="7">
+        <f>"Технол.Эн.систем  "</f>
+        <v/>
+      </c>
+      <c r="F53" s="6">
+        <f>CurrAttrValue(B53, 0)</f>
+        <v/>
+      </c>
+      <c r="G53" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="5">
+        <f>CONCATENATE($A$2, $A$1, C54, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B54" s="5">
+        <f>CONCATENATE($A$2, $A$1, C54, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C54" s="5">
+        <f>"System.CNT.VOD1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D54" s="6">
+        <f>"39"</f>
+        <v/>
+      </c>
+      <c r="E54" s="7">
+        <f>"ВОД1. Вентилятор обдува двигателя №1  "</f>
+        <v/>
+      </c>
+      <c r="F54" s="6">
+        <f>CurrAttrValue(B54, 0)</f>
+        <v/>
+      </c>
+      <c r="G54" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="5">
+        <f>CONCATENATE($A$2, $A$1, C55, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B55" s="5">
+        <f>CONCATENATE($A$2, $A$1, C55, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C55" s="5">
+        <f>"System.CNT.VOD2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D55" s="6">
+        <f>"40"</f>
+        <v/>
+      </c>
+      <c r="E55" s="7">
+        <f>"ВОД2. Вентилятор обдува двигателя №2  "</f>
+        <v/>
+      </c>
+      <c r="F55" s="6">
+        <f>CurrAttrValue(B55, 0)</f>
+        <v/>
+      </c>
+      <c r="G55" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="5">
+        <f>CONCATENATE($A$2, $A$1, C56, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B56" s="5">
+        <f>CONCATENATE($A$2, $A$1, C56, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C56" s="5">
+        <f>"System.CNT.VOD3_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D56" s="6">
+        <f>"41"</f>
+        <v/>
+      </c>
+      <c r="E56" s="7">
+        <f>"ВОД3. Вентилятор обдува двигателя №3  "</f>
+        <v/>
+      </c>
+      <c r="F56" s="6">
+        <f>CurrAttrValue(B56, 0)</f>
+        <v/>
+      </c>
+      <c r="G56" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="5">
+        <f>CONCATENATE($A$2, $A$1, C57, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B57" s="5">
+        <f>CONCATENATE($A$2, $A$1, C57, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C57" s="5">
+        <f>"System.CNT.VOT1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D57" s="6">
+        <f>"42"</f>
+        <v/>
+      </c>
+      <c r="E57" s="7">
+        <f>"ВОТ1. Вентилятор обдува трансмиссии №1  "</f>
+        <v/>
+      </c>
+      <c r="F57" s="6">
+        <f>CurrAttrValue(B57, 0)</f>
+        <v/>
+      </c>
+      <c r="G57" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="5">
+        <f>CONCATENATE($A$2, $A$1, C58, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B58" s="5">
+        <f>CONCATENATE($A$2, $A$1, C58, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C58" s="5">
+        <f>"System.CNT.VOT2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D58" s="6">
+        <f>"43"</f>
+        <v/>
+      </c>
+      <c r="E58" s="7">
+        <f>"ВОТ2. Вентилятор обдува трансмиссии №2  "</f>
+        <v/>
+      </c>
+      <c r="F58" s="6">
+        <f>CurrAttrValue(B58, 0)</f>
+        <v/>
+      </c>
+      <c r="G58" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="5">
         <f>CONCATENATE($A$2, $A$1, C59, $B$2)</f>
@@ -535,15 +1917,15 @@
         <v/>
       </c>
       <c r="C59" s="5">
-        <f>"System.CNT.SK_Swap"</f>
+        <f>"System.CNT.KlPP1_Swap"</f>
         <v/>
       </c>
       <c r="D59" s="6">
-        <f>"42"</f>
+        <f>"44"</f>
         <v/>
       </c>
       <c r="E59" s="7">
-        <f>"СК  "</f>
+        <f>"Клапан противопож.  "</f>
         <v/>
       </c>
       <c r="F59" s="6">
@@ -565,15 +1947,15 @@
         <v/>
       </c>
       <c r="C60" s="5">
-        <f>"System.CNT.VNA_Swap"</f>
+        <f>"System.CNT.KrSLM_Swap"</f>
         <v/>
       </c>
       <c r="D60" s="6">
-        <f>"43"</f>
+        <f>"45"</f>
         <v/>
       </c>
       <c r="E60" s="7">
-        <f>"Клапан ВНА  "</f>
+        <f>"Кр. слива масла КЭП6203  "</f>
         <v/>
       </c>
       <c r="F60" s="6">
@@ -595,15 +1977,15 @@
         <v/>
       </c>
       <c r="C61" s="5">
-        <f>"System.CNT.AZ_Swap"</f>
+        <f>"System.CNT.ZsAR_Swap"</f>
         <v/>
       </c>
       <c r="D61" s="6">
-        <f>"44"</f>
+        <f>"46"</f>
         <v/>
       </c>
       <c r="E61" s="7">
-        <f>"АЗ  "</f>
+        <f>"ЗсЗАР. Заслонка защиты от авторотации  "</f>
         <v/>
       </c>
       <c r="F61" s="6">
@@ -625,15 +2007,15 @@
         <v/>
       </c>
       <c r="C62" s="5">
-        <f>"System.CNT.KPV1_Swap"</f>
+        <f>"System.CNT.ZsVOU_Swap"</f>
         <v/>
       </c>
       <c r="D62" s="6">
-        <f>"45"</f>
+        <f>"47"</f>
         <v/>
       </c>
       <c r="E62" s="7">
-        <f>"КПВ1  "</f>
+        <f>"ЗсПОС ВОУ. Заслонка подачи воздуха в ПОС ВОУ  "</f>
         <v/>
       </c>
       <c r="F62" s="6">
@@ -655,15 +2037,15 @@
         <v/>
       </c>
       <c r="C63" s="5">
-        <f>"System.CNT.KPV2_Swap"</f>
+        <f>"System.CNT.KE1_Swap"</f>
         <v/>
       </c>
       <c r="D63" s="6">
-        <f>"46"</f>
+        <f>"48"</f>
         <v/>
       </c>
       <c r="E63" s="7">
-        <f>"КПВ2  "</f>
+        <f>"Кран МСД КЭ1 (на МА)  "</f>
         <v/>
       </c>
       <c r="F63" s="6">
@@ -685,15 +2067,15 @@
         <v/>
       </c>
       <c r="C64" s="5">
-        <f>"System.CNT.KPV3_Swap"</f>
+        <f>"System.CNT.KE2_Swap"</f>
         <v/>
       </c>
       <c r="D64" s="6">
-        <f>"47"</f>
+        <f>"49"</f>
         <v/>
       </c>
       <c r="E64" s="7">
-        <f>"КПВ3  "</f>
+        <f>"Кран МСД КЭ2 (на пуске)  "</f>
         <v/>
       </c>
       <c r="F64" s="6">
@@ -715,15 +2097,15 @@
         <v/>
       </c>
       <c r="C65" s="5">
-        <f>"System.CNT.KPV4_Swap"</f>
+        <f>"System.CNT.KE3_Swap"</f>
         <v/>
       </c>
       <c r="D65" s="6">
-        <f>"48"</f>
+        <f>"50"</f>
         <v/>
       </c>
       <c r="E65" s="7">
-        <f>"КПВ4  "</f>
+        <f>"Кран МСД КЭ3 (вход ГМТ)  "</f>
         <v/>
       </c>
       <c r="F65" s="6">
@@ -745,15 +2127,15 @@
         <v/>
       </c>
       <c r="C66" s="5">
-        <f>"System.CNT.KPV5_Swap"</f>
+        <f>"System.CNT.KE4_Swap"</f>
         <v/>
       </c>
       <c r="D66" s="6">
-        <f>"49"</f>
+        <f>"51"</f>
         <v/>
       </c>
       <c r="E66" s="7">
-        <f>"КПВ5  "</f>
+        <f>"Кран МСД КЭ4 (Слив с МО)  "</f>
         <v/>
       </c>
       <c r="F66" s="6">
@@ -775,15 +2157,15 @@
         <v/>
       </c>
       <c r="C67" s="5">
-        <f>"System.CNT.VNAHeat_Swap"</f>
+        <f>"System.CNT.KBV1_WorkTime"</f>
         <v/>
       </c>
       <c r="D67" s="6">
-        <f>"50"</f>
+        <f>"52"</f>
         <v/>
       </c>
       <c r="E67" s="7">
-        <f>"Клапан обогрева ВНА  "</f>
+        <f>"КБВ1. Компрессор барьерного воздуха №1  "</f>
         <v/>
       </c>
       <c r="F67" s="6">
@@ -791,7 +2173,7 @@
         <v/>
       </c>
       <c r="G67" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -805,15 +2187,15 @@
         <v/>
       </c>
       <c r="C68" s="5">
-        <f>"System.CNT.Kr1_Swap"</f>
+        <f>"System.CNT.KBV2_WorkTime"</f>
         <v/>
       </c>
       <c r="D68" s="6">
-        <f>"51"</f>
+        <f>"53"</f>
         <v/>
       </c>
       <c r="E68" s="7">
-        <f>"Кран 1  "</f>
+        <f>"КБВ2. Компрессор барьерного воздуха №2  "</f>
         <v/>
       </c>
       <c r="F68" s="6">
@@ -821,7 +2203,7 @@
         <v/>
       </c>
       <c r="G68" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -835,15 +2217,15 @@
         <v/>
       </c>
       <c r="C69" s="5">
-        <f>"System.CNT.Kr2_Swap"</f>
+        <f>"System.CNT.KrPMMBD_Swap"</f>
         <v/>
       </c>
       <c r="D69" s="6">
-        <f>"52"</f>
+        <f>"54"</f>
         <v/>
       </c>
       <c r="E69" s="7">
-        <f>"Кран 2  "</f>
+        <f>"Кран перемешивания масла в МБД  "</f>
         <v/>
       </c>
       <c r="F69" s="6">
@@ -855,109 +2237,109 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="5">
-        <f>CONCATENATE($A$2, $A$1, C70, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B70" s="5">
-        <f>CONCATENATE($A$2, $A$1, C70, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C70" s="5">
-        <f>"System.CNT.Kr4_Swap"</f>
-        <v/>
-      </c>
-      <c r="D70" s="6">
-        <f>"53"</f>
-        <v/>
-      </c>
-      <c r="E70" s="7">
-        <f>"Кран 4  "</f>
-        <v/>
-      </c>
-      <c r="F70" s="6">
-        <f>CurrAttrValue(B70, 0)</f>
-        <v/>
-      </c>
-      <c r="G70" s="6">
-        <f>"-"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="5">
-        <f>CONCATENATE($A$2, $A$1, C71, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B71" s="5">
-        <f>CONCATENATE($A$2, $A$1, C71, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C71" s="5">
-        <f>"System.CNT.Kr5_Swap"</f>
-        <v/>
-      </c>
-      <c r="D71" s="6">
-        <f>"54"</f>
-        <v/>
-      </c>
-      <c r="E71" s="7">
-        <f>"Кран 5  "</f>
-        <v/>
-      </c>
-      <c r="F71" s="6">
-        <f>CurrAttrValue(B71, 0)</f>
-        <v/>
-      </c>
-      <c r="G71" s="6">
-        <f>"-"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" ht="35" customHeight="1">
-      <c r="E74" s="8">
+    <row r="72" ht="35" customHeight="1">
+      <c r="E72" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F74" s="8">
+      <c r="F72" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G74" s="8">
+      <c r="G72" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="75" ht="40" customHeight="1">
-      <c r="E75" s="1">
+    <row r="73" ht="40" customHeight="1">
+      <c r="E73" s="1">
         <f>"Срез накопленных значений по наработке ГПА №2 на "</f>
         <v/>
       </c>
-      <c r="F75" s="2">
+      <c r="F73" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G75" s="3">
+      <c r="G73" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="D75" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E75" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F75" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G75" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="5">
+        <f>CONCATENATE($A$2, $A$1, C76, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B76" s="5">
+        <f>CONCATENATE($A$2, $A$1, C76, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C76" s="5">
+        <f>"System.CNT.EnMOD1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D76" s="6">
+        <f>"55"</f>
+        <v/>
+      </c>
+      <c r="E76" s="7">
+        <f>"ЭМОД1. Электронагреватель МОД №1  "</f>
+        <v/>
+      </c>
+      <c r="F76" s="6">
+        <f>CurrAttrValue(B76, 0)</f>
+        <v/>
+      </c>
+      <c r="G76" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
     <row r="77" ht="20" customHeight="1">
-      <c r="D77" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E77" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F77" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G77" s="4">
-        <f>"Ед. изм"</f>
+      <c r="A77" s="5">
+        <f>CONCATENATE($A$2, $A$1, C77, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B77" s="5">
+        <f>CONCATENATE($A$2, $A$1, C77, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C77" s="5">
+        <f>"System.CNT.EnMON1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D77" s="6">
+        <f>"56"</f>
+        <v/>
+      </c>
+      <c r="E77" s="7">
+        <f>"ЭМОН1. Электронагреватель МОН №1  "</f>
+        <v/>
+      </c>
+      <c r="F77" s="6">
+        <f>CurrAttrValue(B77, 0)</f>
+        <v/>
+      </c>
+      <c r="G77" s="6">
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -971,15 +2353,15 @@
         <v/>
       </c>
       <c r="C78" s="5">
-        <f>"System.CNT.Kr6_Swap"</f>
+        <f>"System.CNT.AVV_BKA_WorkTime"</f>
         <v/>
       </c>
       <c r="D78" s="6">
-        <f>"55"</f>
+        <f>"57"</f>
         <v/>
       </c>
       <c r="E78" s="7">
-        <f>"Кран 6  "</f>
+        <f>"АВВ БКА  "</f>
         <v/>
       </c>
       <c r="F78" s="6">
@@ -987,7 +2369,7 @@
         <v/>
       </c>
       <c r="G78" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1001,15 +2383,15 @@
         <v/>
       </c>
       <c r="C79" s="5">
-        <f>"System.CNT.Kr9_Swap"</f>
+        <f>"System.CNT.Kr_AM_Drain_Swap"</f>
         <v/>
       </c>
       <c r="D79" s="6">
-        <f>"56"</f>
+        <f>"58"</f>
         <v/>
       </c>
       <c r="E79" s="7">
-        <f>"Кран №9  "</f>
+        <f>"КЭП6202. Кран слива масла из аккумулятора масла ЦБК  "</f>
         <v/>
       </c>
       <c r="F79" s="6">
@@ -1031,15 +2413,15 @@
         <v/>
       </c>
       <c r="C80" s="5">
-        <f>"System.CNT.Kr10_Swap"</f>
+        <f>"System.CNT.KrSLM_MOCBN_WorkTime"</f>
         <v/>
       </c>
       <c r="D80" s="6">
-        <f>"57"</f>
+        <f>"59"</f>
         <v/>
       </c>
       <c r="E80" s="7">
-        <f>"Кран №10  "</f>
+        <f>"КЭП6201. Кран слива масла из МО ЦБК  "</f>
         <v/>
       </c>
       <c r="F80" s="6">
@@ -1047,7 +2429,7 @@
         <v/>
       </c>
       <c r="G80" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1061,15 +2443,15 @@
         <v/>
       </c>
       <c r="C81" s="5">
-        <f>"System.CNT.Kr11_Swap"</f>
+        <f>"System.CNT.NsN1_WorkTime"</f>
         <v/>
       </c>
       <c r="D81" s="6">
-        <f>"58"</f>
+        <f>"60"</f>
         <v/>
       </c>
       <c r="E81" s="7">
-        <f>"Кран 11  "</f>
+        <f>"Насос церкуляционный ГТД  "</f>
         <v/>
       </c>
       <c r="F81" s="6">
@@ -1077,7 +2459,7 @@
         <v/>
       </c>
       <c r="G81" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1091,15 +2473,15 @@
         <v/>
       </c>
       <c r="C82" s="5">
-        <f>"System.CNT.Kr12_Swap"</f>
+        <f>"System.CNT.NsN2_WorkTime"</f>
         <v/>
       </c>
       <c r="D82" s="6">
-        <f>"59"</f>
+        <f>"61"</f>
         <v/>
       </c>
       <c r="E82" s="7">
-        <f>"Кран 12  "</f>
+        <f>"Н2 МСД. Насос откачки от ГТД  "</f>
         <v/>
       </c>
       <c r="F82" s="6">
@@ -1107,7 +2489,7 @@
         <v/>
       </c>
       <c r="G82" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1121,15 +2503,15 @@
         <v/>
       </c>
       <c r="C83" s="5">
-        <f>"System.CNT.Kr13_Swap"</f>
+        <f>"System.CNT.NsN3_WorkTime"</f>
         <v/>
       </c>
       <c r="D83" s="6">
-        <f>"60"</f>
+        <f>"62"</f>
         <v/>
       </c>
       <c r="E83" s="7">
-        <f>"Кран 13  "</f>
+        <f>"Насос предпусковой ГТД  "</f>
         <v/>
       </c>
       <c r="F83" s="6">
@@ -1137,7 +2519,7 @@
         <v/>
       </c>
       <c r="G83" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1151,15 +2533,15 @@
         <v/>
       </c>
       <c r="C84" s="5">
-        <f>"System.CNT.PNS_WorkTime"</f>
+        <f>"System.CNT.NsMSN_WorkTime"</f>
         <v/>
       </c>
       <c r="D84" s="6">
-        <f>"61"</f>
+        <f>"63"</f>
         <v/>
       </c>
       <c r="E84" s="7">
-        <f>"ПНС  "</f>
+        <f>"НСП МСН. Насоса смазки компрессора  "</f>
         <v/>
       </c>
       <c r="F84" s="6">
@@ -1181,15 +2563,15 @@
         <v/>
       </c>
       <c r="C85" s="5">
-        <f>"System.CNT.PNS_Swap"</f>
+        <f>"System.CNT.NsC_MBN_WorkTime"</f>
         <v/>
       </c>
       <c r="D85" s="6">
-        <f>"62"</f>
+        <f>"64"</f>
         <v/>
       </c>
       <c r="E85" s="7">
-        <f>"ПНС  "</f>
+        <f>"НсЦ ЦБК. Насос циркуляции масла МБК  "</f>
         <v/>
       </c>
       <c r="F85" s="6">
@@ -1197,7 +2579,7 @@
         <v/>
       </c>
       <c r="G85" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1211,15 +2593,15 @@
         <v/>
       </c>
       <c r="C86" s="5">
-        <f>"System.CNT.PNU_WorkTime"</f>
+        <f>"System.CNT.Sound_WorkTime"</f>
         <v/>
       </c>
       <c r="D86" s="6">
-        <f>"63"</f>
+        <f>"65"</f>
         <v/>
       </c>
       <c r="E86" s="7">
-        <f>"ПНУ  "</f>
+        <f>"Сирена  "</f>
         <v/>
       </c>
       <c r="F86" s="6">
@@ -1241,15 +2623,15 @@
         <v/>
       </c>
       <c r="C87" s="5">
-        <f>"System.CNT.PNU_Swap"</f>
+        <f>"System.CNT.EnMBD1_WorkTime"</f>
         <v/>
       </c>
       <c r="D87" s="6">
-        <f>"64"</f>
+        <f>"66"</f>
         <v/>
       </c>
       <c r="E87" s="7">
-        <f>"ПНУ  "</f>
+        <f>"ЭнМБД1. Электронагреватель масла №1 в МБД  "</f>
         <v/>
       </c>
       <c r="F87" s="6">
@@ -1257,7 +2639,7 @@
         <v/>
       </c>
       <c r="G87" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1271,15 +2653,15 @@
         <v/>
       </c>
       <c r="C88" s="5">
-        <f>"System.CNT.VVON_WorkTime"</f>
+        <f>"System.CNT.EnMBD2_WorkTime"</f>
         <v/>
       </c>
       <c r="D88" s="6">
-        <f>"65"</f>
+        <f>"67"</f>
         <v/>
       </c>
       <c r="E88" s="7">
-        <f>"ВВОН  "</f>
+        <f>"ЭнМБД2. Электронагреватель масла №2 в МБД  "</f>
         <v/>
       </c>
       <c r="F88" s="6">
@@ -1301,15 +2683,15 @@
         <v/>
       </c>
       <c r="C89" s="5">
-        <f>"System.CNT.VVOU_WorkTime"</f>
+        <f>"System.CNT.EnMBN1_WorkTime"</f>
         <v/>
       </c>
       <c r="D89" s="6">
-        <f>"66"</f>
+        <f>"68"</f>
         <v/>
       </c>
       <c r="E89" s="7">
-        <f>"ВВОУ  "</f>
+        <f>"ЭнМБН1. Электронагреватель масла №1 в МБН  "</f>
         <v/>
       </c>
       <c r="F89" s="6">
@@ -1331,15 +2713,15 @@
         <v/>
       </c>
       <c r="C90" s="5">
-        <f>"System.CNT.VMOD1_WorkTime"</f>
+        <f>"System.CNT.EnMBN2_WorkTime"</f>
         <v/>
       </c>
       <c r="D90" s="6">
-        <f>"67"</f>
+        <f>"69"</f>
         <v/>
       </c>
       <c r="E90" s="7">
-        <f>"ВМОД-1  "</f>
+        <f>"ЭнМБН2. Электронагреватель масла №2 в МБН  "</f>
         <v/>
       </c>
       <c r="F90" s="6">
@@ -1361,15 +2743,15 @@
         <v/>
       </c>
       <c r="C91" s="5">
-        <f>"System.CNT.VMOD2_WorkTime"</f>
+        <f>"System.CNT.EnMBN3_WorkTime"</f>
         <v/>
       </c>
       <c r="D91" s="6">
-        <f>"68"</f>
+        <f>"70"</f>
         <v/>
       </c>
       <c r="E91" s="7">
-        <f>"ВМОД-2  "</f>
+        <f>"ЭнМБН3. Электронагреватель масла №3 в МБН  "</f>
         <v/>
       </c>
       <c r="F91" s="6">
@@ -1391,15 +2773,15 @@
         <v/>
       </c>
       <c r="C92" s="5">
-        <f>"System.CNT.VMON1_WorkTime"</f>
+        <f>"System.CNT.EnMBN4_WorkTime"</f>
         <v/>
       </c>
       <c r="D92" s="6">
-        <f>"69"</f>
+        <f>"71"</f>
         <v/>
       </c>
       <c r="E92" s="7">
-        <f>"ВМОН-1  "</f>
+        <f>"ЭнМБН4. Электронагреватель масла №4 в МБН  "</f>
         <v/>
       </c>
       <c r="F92" s="6">
@@ -1421,15 +2803,15 @@
         <v/>
       </c>
       <c r="C93" s="5">
-        <f>"System.CNT.VMON2_WorkTime"</f>
+        <f>"System.CNT.EnBG1_WorkTime"</f>
         <v/>
       </c>
       <c r="D93" s="6">
-        <f>"70"</f>
+        <f>"72"</f>
         <v/>
       </c>
       <c r="E93" s="7">
-        <f>"ВМОН-2  "</f>
+        <f>"ЭнБГ1. Электронагреватель буферного газа №1  "</f>
         <v/>
       </c>
       <c r="F93" s="6">
@@ -1441,109 +2823,109 @@
         <v/>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="5">
-        <f>CONCATENATE($A$2, $A$1, C94, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B94" s="5">
-        <f>CONCATENATE($A$2, $A$1, C94, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C94" s="5">
-        <f>"System.CNT.MBD_Heat_WorkTime"</f>
-        <v/>
-      </c>
-      <c r="D94" s="6">
-        <f>"71"</f>
-        <v/>
-      </c>
-      <c r="E94" s="7">
-        <f>"ТЭН МБД  "</f>
-        <v/>
-      </c>
-      <c r="F94" s="6">
-        <f>CurrAttrValue(B94, 0)</f>
-        <v/>
-      </c>
-      <c r="G94" s="6">
-        <f>"час"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" ht="20" customHeight="1">
-      <c r="A95" s="5">
-        <f>CONCATENATE($A$2, $A$1, C95, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B95" s="5">
-        <f>CONCATENATE($A$2, $A$1, C95, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C95" s="5">
-        <f>"System.CNT.MBN_Heat_WorkTime"</f>
-        <v/>
-      </c>
-      <c r="D95" s="6">
-        <f>"72"</f>
-        <v/>
-      </c>
-      <c r="E95" s="7">
-        <f>"ТЭН МБН  "</f>
-        <v/>
-      </c>
-      <c r="F95" s="6">
-        <f>CurrAttrValue(B95, 0)</f>
-        <v/>
-      </c>
-      <c r="G95" s="6">
-        <f>"час"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" ht="35" customHeight="1">
-      <c r="E98" s="8">
+    <row r="96" ht="35" customHeight="1">
+      <c r="E96" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F98" s="8">
+      <c r="F96" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G98" s="8">
+      <c r="G96" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="99" ht="40" customHeight="1">
-      <c r="E99" s="1">
+    <row r="97" ht="40" customHeight="1">
+      <c r="E97" s="1">
         <f>"Срез накопленных значений по наработке ГПА №2 на "</f>
         <v/>
       </c>
-      <c r="F99" s="2">
+      <c r="F97" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G99" s="3">
+      <c r="G97" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
+    <row r="99" ht="20" customHeight="1">
+      <c r="D99" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E99" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F99" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G99" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" ht="20" customHeight="1">
+      <c r="A100" s="5">
+        <f>CONCATENATE($A$2, $A$1, C100, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B100" s="5">
+        <f>CONCATENATE($A$2, $A$1, C100, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C100" s="5">
+        <f>"System.CNT.EnBG2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D100" s="6">
+        <f>"73"</f>
+        <v/>
+      </c>
+      <c r="E100" s="7">
+        <f>"ЭнБГ2. Электронагреватель буферного газа №2  "</f>
+        <v/>
+      </c>
+      <c r="F100" s="6">
+        <f>CurrAttrValue(B100, 0)</f>
+        <v/>
+      </c>
+      <c r="G100" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
     <row r="101" ht="20" customHeight="1">
-      <c r="D101" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E101" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F101" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G101" s="4">
-        <f>"Ед. изм"</f>
+      <c r="A101" s="5">
+        <f>CONCATENATE($A$2, $A$1, C101, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B101" s="5">
+        <f>CONCATENATE($A$2, $A$1, C101, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C101" s="5">
+        <f>"System.CNT.EnBG3_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D101" s="6">
+        <f>"74"</f>
+        <v/>
+      </c>
+      <c r="E101" s="7">
+        <f>"ЭнБГ3. Электронагреватель буферного газа №3  "</f>
+        <v/>
+      </c>
+      <c r="F101" s="6">
+        <f>CurrAttrValue(B101, 0)</f>
+        <v/>
+      </c>
+      <c r="G101" s="6">
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1557,15 +2939,15 @@
         <v/>
       </c>
       <c r="C102" s="5">
-        <f>"System.CNT.Buzzer_Swap"</f>
+        <f>"System.CNT.EnBKARM_WorkTime"</f>
         <v/>
       </c>
       <c r="D102" s="6">
-        <f>"73"</f>
+        <f>"75"</f>
         <v/>
       </c>
       <c r="E102" s="7">
-        <f>"Звуковая сигнализация  "</f>
+        <f>"Электронагреватель блок-контроля арматуры  "</f>
         <v/>
       </c>
       <c r="F102" s="6">
@@ -1573,7 +2955,7 @@
         <v/>
       </c>
       <c r="G102" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1587,15 +2969,15 @@
         <v/>
       </c>
       <c r="C103" s="5">
-        <f>"System.CNT.Buzzer2_Swap"</f>
+        <f>"System.CNT.EnRoof_WorkTime"</f>
         <v/>
       </c>
       <c r="D103" s="6">
-        <f>"74"</f>
+        <f>"76"</f>
         <v/>
       </c>
       <c r="E103" s="7">
-        <f>"Звуковуя сигнализация (тон 2)  "</f>
+        <f>"Электронагреватель кромки крыши  "</f>
         <v/>
       </c>
       <c r="F103" s="6">
@@ -1603,7 +2985,7 @@
         <v/>
       </c>
       <c r="G103" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1617,15 +2999,15 @@
         <v/>
       </c>
       <c r="C104" s="5">
-        <f>"System.CNT.ONGPA_Swap"</f>
+        <f>"System.CNT.EnChnl1_WorkTime"</f>
         <v/>
       </c>
       <c r="D104" s="6">
-        <f>"75"</f>
+        <f>"77"</f>
         <v/>
       </c>
       <c r="E104" s="7">
-        <f>"Агрегат в работе  "</f>
+        <f>"Электронагреватель канальный 1  "</f>
         <v/>
       </c>
       <c r="F104" s="6">
@@ -1633,7 +3015,7 @@
         <v/>
       </c>
       <c r="G104" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1647,15 +3029,15 @@
         <v/>
       </c>
       <c r="C105" s="5">
-        <f>"System.CNT.Warning_Swap"</f>
+        <f>"System.CNT.EnChnl2_WorkTime"</f>
         <v/>
       </c>
       <c r="D105" s="6">
-        <f>"76"</f>
+        <f>"78"</f>
         <v/>
       </c>
       <c r="E105" s="7">
-        <f>"Предупредительная сигнализация  "</f>
+        <f>"Электронагреватель канальный 2  "</f>
         <v/>
       </c>
       <c r="F105" s="6">
@@ -1663,7 +3045,7 @@
         <v/>
       </c>
       <c r="G105" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1677,15 +3059,15 @@
         <v/>
       </c>
       <c r="C106" s="5">
-        <f>"System.CNT.Alarm_Swap"</f>
+        <f>"System.CNT.ZsOV1_WorkTime"</f>
         <v/>
       </c>
       <c r="D106" s="6">
-        <f>"77"</f>
+        <f>"79"</f>
         <v/>
       </c>
       <c r="E106" s="7">
-        <f>"Аварийная сигнализация  "</f>
+        <f>"Заслонка №1 отбора от ГТД  "</f>
         <v/>
       </c>
       <c r="F106" s="6">
@@ -1693,7 +3075,7 @@
         <v/>
       </c>
       <c r="G106" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1707,15 +3089,15 @@
         <v/>
       </c>
       <c r="C107" s="5">
-        <f>"System.CNT.Indication_AO_Swap"</f>
+        <f>"System.CNT.ZsOV2_WorkTime"</f>
         <v/>
       </c>
       <c r="D107" s="6">
-        <f>"78"</f>
+        <f>"80"</f>
         <v/>
       </c>
       <c r="E107" s="7">
-        <f>"""Индикация кн. АО""    "</f>
+        <f>"Заслонка №2 отбора от ГТД  "</f>
         <v/>
       </c>
       <c r="F107" s="6">
@@ -1723,7 +3105,7 @@
         <v/>
       </c>
       <c r="G107" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1737,15 +3119,15 @@
         <v/>
       </c>
       <c r="C108" s="5">
-        <f>"System.CNT.CheckSPO_Swap"</f>
+        <f>"System.CNT.ZsOV3_WorkTime"</f>
         <v/>
       </c>
       <c r="D108" s="6">
-        <f>"79"</f>
+        <f>"81"</f>
         <v/>
       </c>
       <c r="E108" s="7">
-        <f>"Контроль СПО (БЗА)  "</f>
+        <f>"Заслонка №3 отбора от ГТД  "</f>
         <v/>
       </c>
       <c r="F108" s="6">
@@ -1753,7 +3135,7 @@
         <v/>
       </c>
       <c r="G108" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1767,15 +3149,15 @@
         <v/>
       </c>
       <c r="C109" s="5">
-        <f>"System.CNT.UnlockSPO_Swap"</f>
+        <f>"System.CNT.ZsOV4_WorkTime"</f>
         <v/>
       </c>
       <c r="D109" s="6">
-        <f>"80"</f>
+        <f>"82"</f>
         <v/>
       </c>
       <c r="E109" s="7">
-        <f>"Деблокировка СПО (БЗА)  "</f>
+        <f>"Заслонка №4 отбора от ГТД  "</f>
         <v/>
       </c>
       <c r="F109" s="6">
@@ -1783,7 +3165,7 @@
         <v/>
       </c>
       <c r="G109" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1797,15 +3179,15 @@
         <v/>
       </c>
       <c r="C110" s="5">
-        <f>"System.CNT.VibrControl_Swap"</f>
+        <f>"System.CNT.VnBET1_WorkTime"</f>
         <v/>
       </c>
       <c r="D110" s="6">
-        <f>"81"</f>
+        <f>"83"</f>
         <v/>
       </c>
       <c r="E110" s="7">
-        <f>"Контроль вибрации  "</f>
+        <f>"Кондиционер №1 БЭТ  "</f>
         <v/>
       </c>
       <c r="F110" s="6">
@@ -1813,7 +3195,7 @@
         <v/>
       </c>
       <c r="G110" s="6">
-        <f>"-"</f>
+        <f>"час"</f>
         <v/>
       </c>
     </row>
@@ -1827,15 +3209,15 @@
         <v/>
       </c>
       <c r="C111" s="5">
-        <f>"System.CNT.Kr15_Swap"</f>
+        <f>"System.CNT.VnBET2_WorkTime"</f>
         <v/>
       </c>
       <c r="D111" s="6">
-        <f>"82"</f>
+        <f>"84"</f>
         <v/>
       </c>
       <c r="E111" s="7">
-        <f>"Кран 15  "</f>
+        <f>"Кондиционер №2 БЭТ  "</f>
         <v/>
       </c>
       <c r="F111" s="6">
@@ -1843,20 +3225,396 @@
         <v/>
       </c>
       <c r="G111" s="6">
-        <f>"-"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" ht="35" customHeight="1">
-      <c r="E114" s="8">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" ht="20" customHeight="1">
+      <c r="A112" s="5">
+        <f>CONCATENATE($A$2, $A$1, C112, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B112" s="5">
+        <f>CONCATENATE($A$2, $A$1, C112, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C112" s="5">
+        <f>"System.CNT.VnSAU1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D112" s="6">
+        <f>"85"</f>
+        <v/>
+      </c>
+      <c r="E112" s="7">
+        <f>"Кондиционер №1 БСАУ  "</f>
+        <v/>
+      </c>
+      <c r="F112" s="6">
+        <f>CurrAttrValue(B112, 0)</f>
+        <v/>
+      </c>
+      <c r="G112" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" ht="20" customHeight="1">
+      <c r="A113" s="5">
+        <f>CONCATENATE($A$2, $A$1, C113, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B113" s="5">
+        <f>CONCATENATE($A$2, $A$1, C113, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C113" s="5">
+        <f>"System.CNT.VnSAU2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D113" s="6">
+        <f>"86"</f>
+        <v/>
+      </c>
+      <c r="E113" s="7">
+        <f>"Кондиционер №2 БСАУ  "</f>
+        <v/>
+      </c>
+      <c r="F113" s="6">
+        <f>CurrAttrValue(B113, 0)</f>
+        <v/>
+      </c>
+      <c r="G113" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" ht="20" customHeight="1">
+      <c r="A114" s="5">
+        <f>CONCATENATE($A$2, $A$1, C114, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B114" s="5">
+        <f>CONCATENATE($A$2, $A$1, C114, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C114" s="5">
+        <f>"System.CNT.EnSAU_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D114" s="6">
+        <f>"87"</f>
+        <v/>
+      </c>
+      <c r="E114" s="7">
+        <f>"Электронагреватель блока САУ  "</f>
+        <v/>
+      </c>
+      <c r="F114" s="6">
+        <f>CurrAttrValue(B114, 0)</f>
+        <v/>
+      </c>
+      <c r="G114" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" ht="20" customHeight="1">
+      <c r="A115" s="5">
+        <f>CONCATENATE($A$2, $A$1, C115, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B115" s="5">
+        <f>CONCATENATE($A$2, $A$1, C115, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C115" s="5">
+        <f>"System.CNT.EnBET_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D115" s="6">
+        <f>"88"</f>
+        <v/>
+      </c>
+      <c r="E115" s="7">
+        <f>"Электронагреватель БЭТ №1  "</f>
+        <v/>
+      </c>
+      <c r="F115" s="6">
+        <f>CurrAttrValue(B115, 0)</f>
+        <v/>
+      </c>
+      <c r="G115" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" ht="20" customHeight="1">
+      <c r="A116" s="5">
+        <f>CONCATENATE($A$2, $A$1, C116, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B116" s="5">
+        <f>CONCATENATE($A$2, $A$1, C116, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C116" s="5">
+        <f>"System.CNT.EnBET2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D116" s="6">
+        <f>"89"</f>
+        <v/>
+      </c>
+      <c r="E116" s="7">
+        <f>"Электронагреватель вентилятора БЭТ  "</f>
+        <v/>
+      </c>
+      <c r="F116" s="6">
+        <f>CurrAttrValue(B116, 0)</f>
+        <v/>
+      </c>
+      <c r="G116" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" ht="20" customHeight="1">
+      <c r="A117" s="5">
+        <f>CONCATENATE($A$2, $A$1, C117, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B117" s="5">
+        <f>CONCATENATE($A$2, $A$1, C117, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C117" s="5">
+        <f>"System.CNT.EnSAU2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D117" s="6">
+        <f>"90"</f>
+        <v/>
+      </c>
+      <c r="E117" s="7">
+        <f>"Электронагреватель вентилятора БСАУ  "</f>
+        <v/>
+      </c>
+      <c r="F117" s="6">
+        <f>CurrAttrValue(B117, 0)</f>
+        <v/>
+      </c>
+      <c r="G117" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="35" customHeight="1">
+      <c r="E120" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F114" s="8">
+      <c r="F120" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G114" s="8">
+      <c r="G120" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" ht="40" customHeight="1">
+      <c r="E121" s="1">
+        <f>"Срез накопленных значений по наработке ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F121" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G121" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" ht="20" customHeight="1">
+      <c r="D123" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E123" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F123" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G123" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="20" customHeight="1">
+      <c r="A124" s="5">
+        <f>CONCATENATE($A$2, $A$1, C124, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B124" s="5">
+        <f>CONCATENATE($A$2, $A$1, C124, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C124" s="5">
+        <f>"System.CNT.VnSHL1_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D124" s="6">
+        <f>"91"</f>
+        <v/>
+      </c>
+      <c r="E124" s="7">
+        <f>"Вентилятор ШЛ1  "</f>
+        <v/>
+      </c>
+      <c r="F124" s="6">
+        <f>CurrAttrValue(B124, 0)</f>
+        <v/>
+      </c>
+      <c r="G124" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" ht="20" customHeight="1">
+      <c r="A125" s="5">
+        <f>CONCATENATE($A$2, $A$1, C125, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B125" s="5">
+        <f>CONCATENATE($A$2, $A$1, C125, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C125" s="5">
+        <f>"System.CNT.VnSHL2_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D125" s="6">
+        <f>"92"</f>
+        <v/>
+      </c>
+      <c r="E125" s="7">
+        <f>"Вентилятор ШЛ2  "</f>
+        <v/>
+      </c>
+      <c r="F125" s="6">
+        <f>CurrAttrValue(B125, 0)</f>
+        <v/>
+      </c>
+      <c r="G125" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" ht="20" customHeight="1">
+      <c r="A126" s="5">
+        <f>CONCATENATE($A$2, $A$1, C126, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B126" s="5">
+        <f>CONCATENATE($A$2, $A$1, C126, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C126" s="5">
+        <f>"System.CNT.VnSHL34_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D126" s="6">
+        <f>"93"</f>
+        <v/>
+      </c>
+      <c r="E126" s="7">
+        <f>"Вентиляторы ШЛ3и4  "</f>
+        <v/>
+      </c>
+      <c r="F126" s="6">
+        <f>CurrAttrValue(B126, 0)</f>
+        <v/>
+      </c>
+      <c r="G126" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" ht="20" customHeight="1">
+      <c r="A127" s="5">
+        <f>CONCATENATE($A$2, $A$1, C127, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B127" s="5">
+        <f>CONCATENATE($A$2, $A$1, C127, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C127" s="5">
+        <f>"System.CNT.BET_Zaz_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D127" s="6">
+        <f>"94"</f>
+        <v/>
+      </c>
+      <c r="E127" s="7">
+        <f>"Заслонки БЭТ  "</f>
+        <v/>
+      </c>
+      <c r="F127" s="6">
+        <f>CurrAttrValue(B127, 0)</f>
+        <v/>
+      </c>
+      <c r="G127" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" ht="20" customHeight="1">
+      <c r="A128" s="5">
+        <f>CONCATENATE($A$2, $A$1, C128, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B128" s="5">
+        <f>CONCATENATE($A$2, $A$1, C128, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C128" s="5">
+        <f>"System.CNT.SAU_Zaz_WorkTime"</f>
+        <v/>
+      </c>
+      <c r="D128" s="6">
+        <f>"95"</f>
+        <v/>
+      </c>
+      <c r="E128" s="7">
+        <f>"Заслонки САУ  "</f>
+        <v/>
+      </c>
+      <c r="F128" s="6">
+        <f>CurrAttrValue(B128, 0)</f>
+        <v/>
+      </c>
+      <c r="G128" s="6">
+        <f>"час"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" ht="35" customHeight="1">
+      <c r="E131" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F131" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G131" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
